--- a/Code/Results/Cases/Case_2_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021114639671376</v>
+        <v>1.040482114791081</v>
       </c>
       <c r="D2">
-        <v>1.039214993733346</v>
+        <v>1.047968478247069</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.044056002458661</v>
+        <v>1.057082976668047</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057820437652024</v>
+        <v>1.045060021110903</v>
       </c>
       <c r="J2">
-        <v>1.042681648251057</v>
+        <v>1.045568483459431</v>
       </c>
       <c r="K2">
-        <v>1.050153753646745</v>
+        <v>1.050729634115847</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.054933880472247</v>
+        <v>1.059818919331757</v>
       </c>
       <c r="N2">
-        <v>1.044162375788831</v>
+        <v>1.047053310634325</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0249797777119</v>
+        <v>1.04129269911532</v>
       </c>
       <c r="D3">
-        <v>1.042132318236688</v>
+        <v>1.048600439877413</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.047497470325933</v>
+        <v>1.057851590910936</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059123836671977</v>
+        <v>1.045274921129228</v>
       </c>
       <c r="J3">
-        <v>1.044811881622608</v>
+        <v>1.046025397022918</v>
       </c>
       <c r="K3">
-        <v>1.052253061280061</v>
+        <v>1.051174013047503</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.057556647916351</v>
+        <v>1.06040141462771</v>
       </c>
       <c r="N3">
-        <v>1.04629563433611</v>
+        <v>1.047510873067481</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027433545171188</v>
+        <v>1.04181762994763</v>
       </c>
       <c r="D4">
-        <v>1.043986723707736</v>
+        <v>1.049009711870885</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.049686731683551</v>
+        <v>1.05834962851951</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059941448650905</v>
+        <v>1.045412879660063</v>
       </c>
       <c r="J4">
-        <v>1.046160610960599</v>
+        <v>1.046320794561753</v>
       </c>
       <c r="K4">
-        <v>1.053581742355912</v>
+        <v>1.051461215508086</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.059220302098755</v>
+        <v>1.060778356886454</v>
       </c>
       <c r="N4">
-        <v>1.047646279024462</v>
+        <v>1.047806690104703</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028454139109244</v>
+        <v>1.042038411774636</v>
       </c>
       <c r="D5">
-        <v>1.044758552808704</v>
+        <v>1.049181851938199</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.05059834750296</v>
+        <v>1.058559167404191</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060279120345643</v>
+        <v>1.045470614160171</v>
       </c>
       <c r="J5">
-        <v>1.046720687487137</v>
+        <v>1.046444917104887</v>
       </c>
       <c r="K5">
-        <v>1.054133374646117</v>
+        <v>1.051581872596618</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.059911895523373</v>
+        <v>1.060936828698847</v>
       </c>
       <c r="N5">
-        <v>1.048207150923909</v>
+        <v>1.047930988916086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028624867607151</v>
+        <v>1.042075487882716</v>
       </c>
       <c r="D6">
-        <v>1.044887696996542</v>
+        <v>1.049210759776076</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.050750905846368</v>
+        <v>1.058594359456888</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060335465328339</v>
+        <v>1.045480292574153</v>
       </c>
       <c r="J6">
-        <v>1.046814325403793</v>
+        <v>1.046465754119141</v>
       </c>
       <c r="K6">
-        <v>1.054225593605065</v>
+        <v>1.051602126557112</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.06002756501204</v>
+        <v>1.060963437076331</v>
       </c>
       <c r="N6">
-        <v>1.048300921817148</v>
+        <v>1.04795185552129</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027447225063337</v>
+        <v>1.041820579650844</v>
       </c>
       <c r="D7">
-        <v>1.043997067157989</v>
+        <v>1.049012011694481</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.049698946792436</v>
+        <v>1.058352427746925</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059945984265149</v>
+        <v>1.045413652146793</v>
       </c>
       <c r="J7">
-        <v>1.046168121731284</v>
+        <v>1.046322453340754</v>
       </c>
       <c r="K7">
-        <v>1.053589140365972</v>
+        <v>1.051462828061127</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.059229573617642</v>
+        <v>1.060780474375832</v>
       </c>
       <c r="N7">
-        <v>1.047653800461303</v>
+        <v>1.047808351239361</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022430869993163</v>
+        <v>1.04075596579996</v>
       </c>
       <c r="D8">
-        <v>1.040207940415278</v>
+        <v>1.048181978969573</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.045227002431257</v>
+        <v>1.057342588810166</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058266336991987</v>
+        <v>1.045132874035101</v>
       </c>
       <c r="J8">
-        <v>1.04340782248284</v>
+        <v>1.045722951796999</v>
       </c>
       <c r="K8">
-        <v>1.050869479748623</v>
+        <v>1.050879883745224</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.055827307569922</v>
+        <v>1.060015769396599</v>
       </c>
       <c r="N8">
-        <v>1.044889581271316</v>
+        <v>1.04720799833465</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013213684436403</v>
+        <v>1.038883337504817</v>
       </c>
       <c r="D9">
-        <v>1.033266159568853</v>
+        <v>1.046722119766167</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.037047072574651</v>
+        <v>1.055568517184462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055103603805795</v>
+        <v>1.044629749300436</v>
       </c>
       <c r="J9">
-        <v>1.038308309584845</v>
+        <v>1.044664648403484</v>
       </c>
       <c r="K9">
-        <v>1.045841625997282</v>
+        <v>1.049850112795776</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.049566380118028</v>
+        <v>1.05866855406329</v>
       </c>
       <c r="N9">
-        <v>1.039782826480083</v>
+        <v>1.046148192028927</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006791405197097</v>
+        <v>1.037637276722903</v>
       </c>
       <c r="D10">
-        <v>1.02844578249968</v>
+        <v>1.045750846388047</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.03137483389184</v>
+        <v>1.05438954724659</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052850405934841</v>
+        <v>1.044288763789167</v>
       </c>
       <c r="J10">
-        <v>1.03473813764334</v>
+        <v>1.043957907686101</v>
       </c>
       <c r="K10">
-        <v>1.042319755812914</v>
+        <v>1.049161964304343</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.045199806932362</v>
+        <v>1.057770703649912</v>
       </c>
       <c r="N10">
-        <v>1.036207584484917</v>
+        <v>1.045440447658661</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003939049805144</v>
+        <v>1.037098299119835</v>
       </c>
       <c r="D11">
-        <v>1.026309402849991</v>
+        <v>1.045330763291816</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.028862622720776</v>
+        <v>1.053879953318597</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05183845316967</v>
+        <v>1.04413980296866</v>
       </c>
       <c r="J11">
-        <v>1.033148872899186</v>
+        <v>1.043651611251195</v>
       </c>
       <c r="K11">
-        <v>1.04075165178942</v>
+        <v>1.048863617358357</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.043260013676462</v>
+        <v>1.057382014369193</v>
       </c>
       <c r="N11">
-        <v>1.034616062802535</v>
+        <v>1.045133716247685</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002868309501249</v>
+        <v>1.036898186912225</v>
       </c>
       <c r="D12">
-        <v>1.025508163875661</v>
+        <v>1.045174800377008</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.027920672929239</v>
+        <v>1.053690805853054</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051456935244933</v>
+        <v>1.044084276030162</v>
       </c>
       <c r="J12">
-        <v>1.032551771449566</v>
+        <v>1.04353779937151</v>
       </c>
       <c r="K12">
-        <v>1.040162458326641</v>
+        <v>1.048752743145762</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.042531818078744</v>
+        <v>1.057237652401309</v>
       </c>
       <c r="N12">
-        <v>1.034018113400368</v>
+        <v>1.045019742742076</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003098504504541</v>
+        <v>1.036941107647392</v>
       </c>
       <c r="D13">
-        <v>1.025680385663154</v>
+        <v>1.045208251544147</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.028123128959118</v>
+        <v>1.053731372330837</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051539030067261</v>
+        <v>1.044096195614643</v>
       </c>
       <c r="J13">
-        <v>1.032680162855599</v>
+        <v>1.043562214184167</v>
       </c>
       <c r="K13">
-        <v>1.040289151086845</v>
+        <v>1.048776528502472</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.042688370643011</v>
+        <v>1.057268617849378</v>
       </c>
       <c r="N13">
-        <v>1.034146687136925</v>
+        <v>1.045044192226567</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003850774610416</v>
+        <v>1.037081755975882</v>
       </c>
       <c r="D14">
-        <v>1.026243330977248</v>
+        <v>1.045317869815176</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.02878494267443</v>
+        <v>1.053864315494936</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051807032778227</v>
+        <v>1.044135217093374</v>
       </c>
       <c r="J14">
-        <v>1.033099656152363</v>
+        <v>1.04364220432915</v>
       </c>
       <c r="K14">
-        <v>1.040703087674438</v>
+        <v>1.048854453573048</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.043199979078441</v>
+        <v>1.057370081057883</v>
       </c>
       <c r="N14">
-        <v>1.034566776162287</v>
+        <v>1.045124295966732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00431276669357</v>
+        <v>1.037168425774158</v>
       </c>
       <c r="D15">
-        <v>1.026589151206452</v>
+        <v>1.045385419196598</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.029191529920886</v>
+        <v>1.053946244566831</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051971406037981</v>
+        <v>1.044159233533211</v>
       </c>
       <c r="J15">
-        <v>1.033357213541672</v>
+        <v>1.043691483668894</v>
       </c>
       <c r="K15">
-        <v>1.04095722808941</v>
+        <v>1.048902458549517</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.043514172224073</v>
+        <v>1.057432597864592</v>
       </c>
       <c r="N15">
-        <v>1.034824699312631</v>
+        <v>1.04517364528879</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006979157954057</v>
+        <v>1.037673059149211</v>
       </c>
       <c r="D16">
-        <v>1.028586505751015</v>
+        <v>1.045778736287936</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.031540347690158</v>
+        <v>1.054423386616562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052916785962431</v>
+        <v>1.044298622260227</v>
       </c>
       <c r="J16">
-        <v>1.034842676260128</v>
+        <v>1.043978229927956</v>
       </c>
       <c r="K16">
-        <v>1.042422896163873</v>
+        <v>1.049181756840315</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.045327486011737</v>
+        <v>1.057796501626287</v>
       </c>
       <c r="N16">
-        <v>1.036312271558532</v>
+        <v>1.04546079876043</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008632229639106</v>
+        <v>1.037989757456034</v>
       </c>
       <c r="D17">
-        <v>1.029826026676765</v>
+        <v>1.046025584767176</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.032998422734519</v>
+        <v>1.054722929696439</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053499955015648</v>
+        <v>1.044385706495606</v>
       </c>
       <c r="J17">
-        <v>1.035762678469745</v>
+        <v>1.044158026080428</v>
       </c>
       <c r="K17">
-        <v>1.0433305550547</v>
+        <v>1.049356854060931</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.046451592727457</v>
+        <v>1.058024792987905</v>
       </c>
       <c r="N17">
-        <v>1.037233580276812</v>
+        <v>1.045640850244062</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009589579073201</v>
+        <v>1.038174537579826</v>
       </c>
       <c r="D18">
-        <v>1.03054430044474</v>
+        <v>1.046169613951233</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.033843507380553</v>
+        <v>1.054897735564883</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053836617595476</v>
+        <v>1.044436374626968</v>
       </c>
       <c r="J18">
-        <v>1.036295135524114</v>
+        <v>1.044262871704335</v>
       </c>
       <c r="K18">
-        <v>1.043855835385179</v>
+        <v>1.049458949122012</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.047102555012453</v>
+        <v>1.058157959652671</v>
       </c>
       <c r="N18">
-        <v>1.037766793481272</v>
+        <v>1.045745844760781</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009914862065591</v>
+        <v>1.038237552165304</v>
       </c>
       <c r="D19">
-        <v>1.030788422199483</v>
+        <v>1.046218732036507</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.034130756915046</v>
+        <v>1.054957354621591</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053950824136032</v>
+        <v>1.044453629646458</v>
       </c>
       <c r="J19">
-        <v>1.036475990979786</v>
+        <v>1.044298616830847</v>
       </c>
       <c r="K19">
-        <v>1.04403424732957</v>
+        <v>1.049493754721254</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.047323726310262</v>
+        <v>1.058203367381002</v>
       </c>
       <c r="N19">
-        <v>1.037947905772435</v>
+        <v>1.045781640649473</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008455583782231</v>
+        <v>1.037955772986587</v>
       </c>
       <c r="D20">
-        <v>1.029693527997086</v>
+        <v>1.045999095423828</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.032842544809853</v>
+        <v>1.054690782498086</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053437748752333</v>
+        <v>1.044376376273212</v>
       </c>
       <c r="J20">
-        <v>1.035664403568856</v>
+        <v>1.044138738379405</v>
       </c>
       <c r="K20">
-        <v>1.043233602026632</v>
+        <v>1.049338071519457</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.046331476039138</v>
+        <v>1.05800029862785</v>
       </c>
       <c r="N20">
-        <v>1.037135165814292</v>
+        <v>1.045621535152291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003629564591646</v>
+        <v>1.037040336103874</v>
       </c>
       <c r="D21">
-        <v>1.02607777255862</v>
+        <v>1.045285587891079</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.028590301149296</v>
+        <v>1.05382516320968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05172826966993</v>
+        <v>1.044123731651445</v>
       </c>
       <c r="J21">
-        <v>1.032976315129605</v>
+        <v>1.043618650312098</v>
       </c>
       <c r="K21">
-        <v>1.040581381547721</v>
+        <v>1.048831508086062</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.043049537393992</v>
+        <v>1.057340202257451</v>
       </c>
       <c r="N21">
-        <v>1.034443259981128</v>
+        <v>1.045100708500273</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000529898178308</v>
+        <v>1.036465275000007</v>
       </c>
       <c r="D22">
-        <v>1.02375972971878</v>
+        <v>1.04483741020035</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.025865615398696</v>
+        <v>1.053281715794819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050620761221996</v>
+        <v>1.043963748878868</v>
       </c>
       <c r="J22">
-        <v>1.031246850945189</v>
+        <v>1.043291420975026</v>
       </c>
       <c r="K22">
-        <v>1.038874752467214</v>
+        <v>1.048512694730687</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.040941513159936</v>
+        <v>1.05692525838737</v>
       </c>
       <c r="N22">
-        <v>1.032711339759198</v>
+        <v>1.044773014460008</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002179464032771</v>
+        <v>1.036770076825805</v>
       </c>
       <c r="D23">
-        <v>1.024992911578533</v>
+        <v>1.04507495603721</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.027315000478866</v>
+        <v>1.053569730878777</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051211033893604</v>
+        <v>1.044048666087062</v>
       </c>
       <c r="J23">
-        <v>1.032167495412517</v>
+        <v>1.04346491274991</v>
       </c>
       <c r="K23">
-        <v>1.039783260847629</v>
+        <v>1.048681733308722</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.04206334416505</v>
+        <v>1.057145219388977</v>
       </c>
       <c r="N23">
-        <v>1.033633291647269</v>
+        <v>1.044946752613114</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008535423601775</v>
+        <v>1.037971128934636</v>
       </c>
       <c r="D24">
-        <v>1.02975341300438</v>
+        <v>1.046011064673984</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.032912995951529</v>
+        <v>1.05470530816329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053465867857468</v>
+        <v>1.04438059259046</v>
       </c>
       <c r="J24">
-        <v>1.035708822617506</v>
+        <v>1.044147453743088</v>
       </c>
       <c r="K24">
-        <v>1.043277423707832</v>
+        <v>1.049346558653435</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.04638576613436</v>
+        <v>1.058011366549753</v>
       </c>
       <c r="N24">
-        <v>1.037179647943085</v>
+        <v>1.04563026289279</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015643651268347</v>
+        <v>1.039367048561788</v>
       </c>
       <c r="D25">
-        <v>1.035093602902813</v>
+        <v>1.047099189675551</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.039199040545327</v>
+        <v>1.056026505872452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055946119549858</v>
+        <v>1.044760804368306</v>
       </c>
       <c r="J25">
-        <v>1.039655774725712</v>
+        <v>1.044938463151115</v>
       </c>
       <c r="K25">
-        <v>1.047170510639936</v>
+        <v>1.050116627144756</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.051217859148128</v>
+        <v>1.059016796906102</v>
       </c>
       <c r="N25">
-        <v>1.041132205176007</v>
+        <v>1.046422395624907</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040482114791081</v>
+        <v>1.021114639671376</v>
       </c>
       <c r="D2">
-        <v>1.047968478247069</v>
+        <v>1.039214993733346</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.057082976668047</v>
+        <v>1.044056002458662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045060021110903</v>
+        <v>1.057820437652024</v>
       </c>
       <c r="J2">
-        <v>1.045568483459431</v>
+        <v>1.042681648251057</v>
       </c>
       <c r="K2">
-        <v>1.050729634115847</v>
+        <v>1.050153753646745</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.059818919331757</v>
+        <v>1.054933880472247</v>
       </c>
       <c r="N2">
-        <v>1.047053310634325</v>
+        <v>1.044162375788831</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04129269911532</v>
+        <v>1.0249797777119</v>
       </c>
       <c r="D3">
-        <v>1.048600439877413</v>
+        <v>1.042132318236689</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.057851590910936</v>
+        <v>1.047497470325933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045274921129228</v>
+        <v>1.059123836671977</v>
       </c>
       <c r="J3">
-        <v>1.046025397022918</v>
+        <v>1.044811881622608</v>
       </c>
       <c r="K3">
-        <v>1.051174013047503</v>
+        <v>1.052253061280062</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.06040141462771</v>
+        <v>1.057556647916351</v>
       </c>
       <c r="N3">
-        <v>1.047510873067481</v>
+        <v>1.04629563433611</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04181762994763</v>
+        <v>1.027433545171188</v>
       </c>
       <c r="D4">
-        <v>1.049009711870885</v>
+        <v>1.043986723707735</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.05834962851951</v>
+        <v>1.04968673168355</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045412879660063</v>
+        <v>1.059941448650904</v>
       </c>
       <c r="J4">
-        <v>1.046320794561753</v>
+        <v>1.046160610960598</v>
       </c>
       <c r="K4">
-        <v>1.051461215508086</v>
+        <v>1.053581742355912</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.060778356886454</v>
+        <v>1.059220302098754</v>
       </c>
       <c r="N4">
-        <v>1.047806690104703</v>
+        <v>1.047646279024462</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042038411774636</v>
+        <v>1.028454139109243</v>
       </c>
       <c r="D5">
-        <v>1.049181851938199</v>
+        <v>1.044758552808703</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.058559167404191</v>
+        <v>1.050598347502959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045470614160171</v>
+        <v>1.060279120345643</v>
       </c>
       <c r="J5">
-        <v>1.046444917104887</v>
+        <v>1.046720687487136</v>
       </c>
       <c r="K5">
-        <v>1.051581872596618</v>
+        <v>1.054133374646117</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.060936828698847</v>
+        <v>1.059911895523372</v>
       </c>
       <c r="N5">
-        <v>1.047930988916086</v>
+        <v>1.048207150923909</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042075487882716</v>
+        <v>1.02862486760715</v>
       </c>
       <c r="D6">
-        <v>1.049210759776076</v>
+        <v>1.044887696996541</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.058594359456888</v>
+        <v>1.050750905846367</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045480292574153</v>
+        <v>1.060335465328338</v>
       </c>
       <c r="J6">
-        <v>1.046465754119141</v>
+        <v>1.046814325403792</v>
       </c>
       <c r="K6">
-        <v>1.051602126557112</v>
+        <v>1.054225593605064</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.060963437076331</v>
+        <v>1.060027565012039</v>
       </c>
       <c r="N6">
-        <v>1.04795185552129</v>
+        <v>1.048300921817147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041820579650844</v>
+        <v>1.027447225063336</v>
       </c>
       <c r="D7">
-        <v>1.049012011694481</v>
+        <v>1.043997067157988</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.058352427746925</v>
+        <v>1.049698946792436</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045413652146793</v>
+        <v>1.059945984265148</v>
       </c>
       <c r="J7">
-        <v>1.046322453340754</v>
+        <v>1.046168121731283</v>
       </c>
       <c r="K7">
-        <v>1.051462828061127</v>
+        <v>1.053589140365971</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.060780474375832</v>
+        <v>1.059229573617641</v>
       </c>
       <c r="N7">
-        <v>1.047808351239361</v>
+        <v>1.047653800461303</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04075596579996</v>
+        <v>1.022430869993163</v>
       </c>
       <c r="D8">
-        <v>1.048181978969573</v>
+        <v>1.040207940415279</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.057342588810166</v>
+        <v>1.045227002431257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045132874035101</v>
+        <v>1.058266336991987</v>
       </c>
       <c r="J8">
-        <v>1.045722951796999</v>
+        <v>1.043407822482841</v>
       </c>
       <c r="K8">
-        <v>1.050879883745224</v>
+        <v>1.050869479748623</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.060015769396599</v>
+        <v>1.055827307569922</v>
       </c>
       <c r="N8">
-        <v>1.04720799833465</v>
+        <v>1.044889581271316</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038883337504817</v>
+        <v>1.013213684436404</v>
       </c>
       <c r="D9">
-        <v>1.046722119766167</v>
+        <v>1.033266159568853</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.055568517184462</v>
+        <v>1.037047072574651</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044629749300436</v>
+        <v>1.055103603805795</v>
       </c>
       <c r="J9">
-        <v>1.044664648403484</v>
+        <v>1.038308309584845</v>
       </c>
       <c r="K9">
-        <v>1.049850112795776</v>
+        <v>1.045841625997282</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.05866855406329</v>
+        <v>1.049566380118028</v>
       </c>
       <c r="N9">
-        <v>1.046148192028927</v>
+        <v>1.039782826480083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037637276722903</v>
+        <v>1.006791405197096</v>
       </c>
       <c r="D10">
-        <v>1.045750846388047</v>
+        <v>1.028445782499679</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.05438954724659</v>
+        <v>1.031374833891839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044288763789167</v>
+        <v>1.052850405934841</v>
       </c>
       <c r="J10">
-        <v>1.043957907686101</v>
+        <v>1.034738137643339</v>
       </c>
       <c r="K10">
-        <v>1.049161964304343</v>
+        <v>1.042319755812913</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.057770703649912</v>
+        <v>1.045199806932361</v>
       </c>
       <c r="N10">
-        <v>1.045440447658661</v>
+        <v>1.036207584484916</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037098299119835</v>
+        <v>1.003939049805144</v>
       </c>
       <c r="D11">
-        <v>1.045330763291816</v>
+        <v>1.026309402849992</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.053879953318597</v>
+        <v>1.028862622720777</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04413980296866</v>
+        <v>1.05183845316967</v>
       </c>
       <c r="J11">
-        <v>1.043651611251195</v>
+        <v>1.033148872899186</v>
       </c>
       <c r="K11">
-        <v>1.048863617358357</v>
+        <v>1.04075165178942</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.057382014369193</v>
+        <v>1.043260013676463</v>
       </c>
       <c r="N11">
-        <v>1.045133716247685</v>
+        <v>1.034616062802535</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036898186912225</v>
+        <v>1.002868309501248</v>
       </c>
       <c r="D12">
-        <v>1.045174800377008</v>
+        <v>1.02550816387566</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.053690805853054</v>
+        <v>1.027920672929238</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044084276030162</v>
+        <v>1.051456935244933</v>
       </c>
       <c r="J12">
-        <v>1.04353779937151</v>
+        <v>1.032551771449565</v>
       </c>
       <c r="K12">
-        <v>1.048752743145762</v>
+        <v>1.040162458326641</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.057237652401309</v>
+        <v>1.042531818078744</v>
       </c>
       <c r="N12">
-        <v>1.045019742742076</v>
+        <v>1.034018113400367</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036941107647392</v>
+        <v>1.00309850450454</v>
       </c>
       <c r="D13">
-        <v>1.045208251544147</v>
+        <v>1.025680385663153</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.053731372330837</v>
+        <v>1.028123128959117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044096195614643</v>
+        <v>1.05153903006726</v>
       </c>
       <c r="J13">
-        <v>1.043562214184167</v>
+        <v>1.032680162855598</v>
       </c>
       <c r="K13">
-        <v>1.048776528502472</v>
+        <v>1.040289151086844</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.057268617849378</v>
+        <v>1.04268837064301</v>
       </c>
       <c r="N13">
-        <v>1.045044192226567</v>
+        <v>1.034146687136924</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037081755975882</v>
+        <v>1.003850774610415</v>
       </c>
       <c r="D14">
-        <v>1.045317869815176</v>
+        <v>1.026243330977247</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.053864315494936</v>
+        <v>1.028784942674429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044135217093374</v>
+        <v>1.051807032778226</v>
       </c>
       <c r="J14">
-        <v>1.04364220432915</v>
+        <v>1.033099656152362</v>
       </c>
       <c r="K14">
-        <v>1.048854453573048</v>
+        <v>1.040703087674438</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.057370081057883</v>
+        <v>1.043199979078439</v>
       </c>
       <c r="N14">
-        <v>1.045124295966732</v>
+        <v>1.034566776162286</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037168425774158</v>
+        <v>1.004312766693569</v>
       </c>
       <c r="D15">
-        <v>1.045385419196598</v>
+        <v>1.026589151206451</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.053946244566831</v>
+        <v>1.029191529920886</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044159233533211</v>
+        <v>1.051971406037981</v>
       </c>
       <c r="J15">
-        <v>1.043691483668894</v>
+        <v>1.033357213541672</v>
       </c>
       <c r="K15">
-        <v>1.048902458549517</v>
+        <v>1.04095722808941</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.057432597864592</v>
+        <v>1.043514172224073</v>
       </c>
       <c r="N15">
-        <v>1.04517364528879</v>
+        <v>1.03482469931263</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037673059149211</v>
+        <v>1.006979157954057</v>
       </c>
       <c r="D16">
-        <v>1.045778736287936</v>
+        <v>1.028586505751014</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.054423386616562</v>
+        <v>1.031540347690157</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044298622260227</v>
+        <v>1.052916785962431</v>
       </c>
       <c r="J16">
-        <v>1.043978229927956</v>
+        <v>1.034842676260128</v>
       </c>
       <c r="K16">
-        <v>1.049181756840315</v>
+        <v>1.042422896163873</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.057796501626287</v>
+        <v>1.045327486011736</v>
       </c>
       <c r="N16">
-        <v>1.04546079876043</v>
+        <v>1.036312271558531</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037989757456034</v>
+        <v>1.008632229639106</v>
       </c>
       <c r="D17">
-        <v>1.046025584767176</v>
+        <v>1.029826026676766</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.054722929696439</v>
+        <v>1.03299842273452</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044385706495606</v>
+        <v>1.053499955015649</v>
       </c>
       <c r="J17">
-        <v>1.044158026080428</v>
+        <v>1.035762678469746</v>
       </c>
       <c r="K17">
-        <v>1.049356854060931</v>
+        <v>1.043330555054701</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.058024792987905</v>
+        <v>1.046451592727458</v>
       </c>
       <c r="N17">
-        <v>1.045640850244062</v>
+        <v>1.037233580276812</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038174537579826</v>
+        <v>1.0095895790732</v>
       </c>
       <c r="D18">
-        <v>1.046169613951233</v>
+        <v>1.03054430044474</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.054897735564883</v>
+        <v>1.033843507380552</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044436374626968</v>
+        <v>1.053836617595476</v>
       </c>
       <c r="J18">
-        <v>1.044262871704335</v>
+        <v>1.036295135524113</v>
       </c>
       <c r="K18">
-        <v>1.049458949122012</v>
+        <v>1.043855835385178</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.058157959652671</v>
+        <v>1.047102555012452</v>
       </c>
       <c r="N18">
-        <v>1.045745844760781</v>
+        <v>1.037766793481271</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038237552165304</v>
+        <v>1.009914862065592</v>
       </c>
       <c r="D19">
-        <v>1.046218732036507</v>
+        <v>1.030788422199483</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.054957354621591</v>
+        <v>1.034130756915046</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044453629646458</v>
+        <v>1.053950824136033</v>
       </c>
       <c r="J19">
-        <v>1.044298616830847</v>
+        <v>1.036475990979786</v>
       </c>
       <c r="K19">
-        <v>1.049493754721254</v>
+        <v>1.04403424732957</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.058203367381002</v>
+        <v>1.047323726310262</v>
       </c>
       <c r="N19">
-        <v>1.045781640649473</v>
+        <v>1.037947905772435</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037955772986587</v>
+        <v>1.00845558378223</v>
       </c>
       <c r="D20">
-        <v>1.045999095423828</v>
+        <v>1.029693527997084</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.054690782498086</v>
+        <v>1.032842544809852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044376376273212</v>
+        <v>1.053437748752333</v>
       </c>
       <c r="J20">
-        <v>1.044138738379405</v>
+        <v>1.035664403568855</v>
       </c>
       <c r="K20">
-        <v>1.049338071519457</v>
+        <v>1.04323360202663</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.05800029862785</v>
+        <v>1.046331476039137</v>
       </c>
       <c r="N20">
-        <v>1.045621535152291</v>
+        <v>1.03713516581429</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037040336103874</v>
+        <v>1.003629564591646</v>
       </c>
       <c r="D21">
-        <v>1.045285587891079</v>
+        <v>1.026077772558619</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.05382516320968</v>
+        <v>1.028590301149295</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044123731651445</v>
+        <v>1.051728269669929</v>
       </c>
       <c r="J21">
-        <v>1.043618650312098</v>
+        <v>1.032976315129605</v>
       </c>
       <c r="K21">
-        <v>1.048831508086062</v>
+        <v>1.04058138154772</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.057340202257451</v>
+        <v>1.043049537393991</v>
       </c>
       <c r="N21">
-        <v>1.045100708500273</v>
+        <v>1.034443259981128</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036465275000007</v>
+        <v>1.000529898178307</v>
       </c>
       <c r="D22">
-        <v>1.04483741020035</v>
+        <v>1.023759729718779</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.053281715794819</v>
+        <v>1.025865615398695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043963748878868</v>
+        <v>1.050620761221995</v>
       </c>
       <c r="J22">
-        <v>1.043291420975026</v>
+        <v>1.031246850945188</v>
       </c>
       <c r="K22">
-        <v>1.048512694730687</v>
+        <v>1.038874752467213</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.05692525838737</v>
+        <v>1.040941513159935</v>
       </c>
       <c r="N22">
-        <v>1.044773014460008</v>
+        <v>1.032711339759197</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036770076825805</v>
+        <v>1.002179464032771</v>
       </c>
       <c r="D23">
-        <v>1.04507495603721</v>
+        <v>1.024992911578533</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.053569730878777</v>
+        <v>1.027315000478866</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044048666087062</v>
+        <v>1.051211033893604</v>
       </c>
       <c r="J23">
-        <v>1.04346491274991</v>
+        <v>1.032167495412517</v>
       </c>
       <c r="K23">
-        <v>1.048681733308722</v>
+        <v>1.03978326084763</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.057145219388977</v>
+        <v>1.04206334416505</v>
       </c>
       <c r="N23">
-        <v>1.044946752613114</v>
+        <v>1.033633291647269</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037971128934636</v>
+        <v>1.008535423601773</v>
       </c>
       <c r="D24">
-        <v>1.046011064673984</v>
+        <v>1.029753413004378</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.05470530816329</v>
+        <v>1.032912995951528</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04438059259046</v>
+        <v>1.053465867857467</v>
       </c>
       <c r="J24">
-        <v>1.044147453743088</v>
+        <v>1.035708822617505</v>
       </c>
       <c r="K24">
-        <v>1.049346558653435</v>
+        <v>1.043277423707831</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.058011366549753</v>
+        <v>1.04638576613436</v>
       </c>
       <c r="N24">
-        <v>1.04563026289279</v>
+        <v>1.037179647943084</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039367048561788</v>
+        <v>1.015643651268347</v>
       </c>
       <c r="D25">
-        <v>1.047099189675551</v>
+        <v>1.035093602902813</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.056026505872452</v>
+        <v>1.039199040545327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044760804368306</v>
+        <v>1.055946119549858</v>
       </c>
       <c r="J25">
-        <v>1.044938463151115</v>
+        <v>1.039655774725712</v>
       </c>
       <c r="K25">
-        <v>1.050116627144756</v>
+        <v>1.047170510639937</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.059016796906102</v>
+        <v>1.051217859148128</v>
       </c>
       <c r="N25">
-        <v>1.046422395624907</v>
+        <v>1.041132205176007</v>
       </c>
     </row>
   </sheetData>
